--- a/app/templates/contable/plantillas/factura2.xlsx
+++ b/app/templates/contable/plantillas/factura2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\CONTABILIDAD_PROYECTO\app\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777022E8-FDE1-4800-B501-3AEC2E26A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D951B92D-85C4-4312-A299-2D991A1596B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>TORMENTA</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Si usted tiene preguntas sobre esta factura, póngase en contacto con</t>
-  </si>
-  <si>
-    <t>[Nombre, Teléfono, E-mail]</t>
-  </si>
-  <si>
-    <t>¡Gracias por su negocio!</t>
   </si>
 </sst>
 </file>
@@ -101,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,12 +142,6 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -184,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -217,17 +202,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -396,19 +370,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -428,11 +389,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -458,31 +432,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,83 +471,68 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,10 +840,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,21 +858,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="7"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
@@ -999,220 +955,358 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="29" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="22" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33"/>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="28"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="28"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A29:F29"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:F25"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/templates/contable/plantillas/factura2.xlsx
+++ b/app/templates/contable/plantillas/factura2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\CONTABILIDAD_PROYECTO\app\templates\contable\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D951B92D-85C4-4312-A299-2D991A1596B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61CEFB5-000E-4A08-9C89-51C4F27F47FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,8 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000%"/>
+    <numFmt numFmtId="167" formatCode="#,##0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -459,9 +460,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -481,6 +479,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -488,12 +516,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,29 +533,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +844,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,21 +859,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="7"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
@@ -955,64 +956,64 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="47" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="21" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -1021,25 +1022,25 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="7"/>
       <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="20">
-        <v>18</v>
+      <c r="F19" s="47">
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="7"/>
       <c r="E20" s="19" t="s">
         <v>17</v>
@@ -1047,258 +1048,253 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="26"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A14:E14"/>
@@ -1307,6 +1303,11 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
